--- a/excelTemplate/LogisticsFreightReceipt.xlsx
+++ b/excelTemplate/LogisticsFreightReceipt.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TBL付费跟踪表出口" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="51">
   <si>
     <t>CONTAINER#</t>
   </si>
@@ -215,6 +215,14 @@
   </si>
   <si>
     <t>&lt;%=rs1.shipment_list_freight_receipt_no%&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.shipment_list_vendor_code%&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VENDOR CODE</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -632,9 +640,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -644,19 +654,20 @@
     <col min="8" max="8" width="13.625" style="1" customWidth="1"/>
     <col min="9" max="10" width="10.375" style="1" customWidth="1"/>
     <col min="11" max="11" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="17.5" style="1" customWidth="1"/>
-    <col min="14" max="14" width="12.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="12.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.25" style="1" customWidth="1"/>
-    <col min="19" max="22" width="16.375" style="1" customWidth="1"/>
-    <col min="23" max="23" width="17.375" style="1" customWidth="1"/>
-    <col min="24" max="16384" width="8.75" style="1"/>
+    <col min="12" max="12" width="21.125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="15.875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="12.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.25" style="1" customWidth="1"/>
+    <col min="20" max="23" width="16.375" style="1" customWidth="1"/>
+    <col min="24" max="24" width="17.375" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -690,44 +701,47 @@
       <c r="K1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="P1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="Q1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="R1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="S1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="T1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="U1" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="V1" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="W1" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
@@ -762,40 +776,43 @@
         <v>15</v>
       </c>
       <c r="L2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="M2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="N2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="O2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="P2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="Q2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="R2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="S2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="T2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="U2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="V2" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="V2" s="6" t="e">
-        <f>K2+N2+ROUND(Q2/2300,2)-T2-ROUND(U2/2300,2)</f>
+      <c r="W2" s="6" t="e">
+        <f>K2+O2+ROUND(R2/2300,2)-U2-ROUND(V2/2300,2)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="X2" s="6" t="s">
         <v>36</v>
       </c>
     </row>
@@ -808,9 +825,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -823,19 +842,20 @@
     <col min="9" max="9" width="18.625" style="2" customWidth="1"/>
     <col min="10" max="10" width="17.75" style="2" customWidth="1"/>
     <col min="11" max="11" width="19.25" style="2" customWidth="1"/>
-    <col min="12" max="12" width="20.25" style="2" customWidth="1"/>
-    <col min="13" max="13" width="13.25" style="2" customWidth="1"/>
-    <col min="14" max="14" width="15.375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="18.125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="19" style="2" customWidth="1"/>
-    <col min="17" max="17" width="16.75" style="2" customWidth="1"/>
-    <col min="18" max="18" width="17" style="2" customWidth="1"/>
-    <col min="19" max="22" width="17.125" style="2" customWidth="1"/>
-    <col min="23" max="23" width="17.375" style="2" customWidth="1"/>
-    <col min="24" max="16384" width="8.75" style="2"/>
+    <col min="12" max="12" width="21.875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="20.25" style="2" customWidth="1"/>
+    <col min="14" max="14" width="13.25" style="2" customWidth="1"/>
+    <col min="15" max="15" width="15.375" style="2" customWidth="1"/>
+    <col min="16" max="16" width="18.125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="19" style="2" customWidth="1"/>
+    <col min="18" max="18" width="16.75" style="2" customWidth="1"/>
+    <col min="19" max="19" width="17" style="2" customWidth="1"/>
+    <col min="20" max="23" width="17.125" style="2" customWidth="1"/>
+    <col min="24" max="24" width="17.375" style="2" customWidth="1"/>
+    <col min="25" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -869,44 +889,47 @@
       <c r="K1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="P1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="Q1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="R1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="S1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="T1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="U1" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="V1" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="W1" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>31</v>
       </c>
@@ -941,40 +964,43 @@
         <v>37</v>
       </c>
       <c r="L2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="M2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="N2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="O2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="P2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="Q2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="R2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="S2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="T2" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="U2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="V2" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="V2" s="6" t="e">
-        <f>K2+N2+ROUND(Q2/2300,2)-T2-ROUND(U2/2300,2)</f>
+      <c r="W2" s="6" t="e">
+        <f>K2+O2+ROUND(R2/2300,2)-U2-ROUND(V2/2300,2)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="X2" s="6" t="s">
         <v>36</v>
       </c>
     </row>

--- a/excelTemplate/LogisticsFreightReceipt.xlsx
+++ b/excelTemplate/LogisticsFreightReceipt.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="57">
   <si>
     <t>CONTAINER#</t>
   </si>
@@ -169,10 +169,6 @@
     <t>&lt;%=rs1.shipment_list_remark%&gt;</t>
   </si>
   <si>
-    <t>&lt;%=rs1.shipment_list_receivable_freight%&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Receivable
 Shipping Lines</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -223,6 +219,34 @@
   </si>
   <si>
     <t>VENDOR CODE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%~rs1.shipment_list_receivable_freight%&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%~rs1.shipment_list_receivable_extra_usd%&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%~rs1.shipment_list_receivable_extra_tzs%&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%~rs1.shipment_list_freight_payable_tzs%&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%~rs1.shipment_list_freight_payable_usd%&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%#"=K2 + O2 + ROUND(R2/2300,2) - U2 - ROUND(V2/2300,2)"%&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%#"=K2 + O2 + ROUND(R2/2300,2) - U2 - ROUND(V2/2300,2)"%&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -230,8 +254,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -333,7 +358,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -358,6 +383,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -643,7 +671,7 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -672,10 +700,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>4</v>
@@ -702,7 +730,7 @@
         <v>14</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M1" s="8" t="s">
         <v>12</v>
@@ -729,13 +757,13 @@
         <v>21</v>
       </c>
       <c r="U1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="V1" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="W1" s="8" t="s">
         <v>42</v>
-      </c>
-      <c r="W1" s="8" t="s">
-        <v>43</v>
       </c>
       <c r="X1" s="3" t="s">
         <v>35</v>
@@ -746,10 +774,10 @@
         <v>5</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>48</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>6</v>
@@ -776,7 +804,7 @@
         <v>15</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M2" s="6" t="s">
         <v>16</v>
@@ -803,14 +831,13 @@
         <v>25</v>
       </c>
       <c r="U2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="V2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="V2" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="W2" s="6" t="e">
-        <f>K2+O2+ROUND(R2/2300,2)-U2-ROUND(V2/2300,2)</f>
-        <v>#VALUE!</v>
+      <c r="W2" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="X2" s="6" t="s">
         <v>36</v>
@@ -828,7 +855,7 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -860,10 +887,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>4</v>
@@ -887,10 +914,10 @@
         <v>30</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M1" s="8" t="s">
         <v>12</v>
@@ -917,13 +944,13 @@
         <v>21</v>
       </c>
       <c r="U1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="V1" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="W1" s="8" t="s">
         <v>42</v>
-      </c>
-      <c r="W1" s="8" t="s">
-        <v>43</v>
       </c>
       <c r="X1" s="3" t="s">
         <v>35</v>
@@ -934,10 +961,10 @@
         <v>31</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>48</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>6</v>
@@ -960,11 +987,11 @@
       <c r="J2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="6" t="s">
-        <v>37</v>
+      <c r="K2" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M2" s="6" t="s">
         <v>16</v>
@@ -972,8 +999,8 @@
       <c r="N2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="6" t="s">
-        <v>22</v>
+      <c r="O2" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="P2" s="6" t="s">
         <v>27</v>
@@ -981,24 +1008,23 @@
       <c r="Q2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="R2" s="6" t="s">
-        <v>24</v>
+      <c r="R2" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="S2" s="6" t="s">
         <v>28</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="U2" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="V2" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="W2" s="6" t="e">
-        <f>K2+O2+ROUND(R2/2300,2)-U2-ROUND(V2/2300,2)</f>
-        <v>#VALUE!</v>
+        <v>43</v>
+      </c>
+      <c r="U2" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="V2" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="X2" s="6" t="s">
         <v>36</v>

--- a/excelTemplate/LogisticsFreightReceipt.xlsx
+++ b/excelTemplate/LogisticsFreightReceipt.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="56">
   <si>
     <t>CONTAINER#</t>
   </si>
@@ -242,11 +242,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;%#"=K2 + O2 + ROUND(R2/2300,2) - U2 - ROUND(V2/2300,2)"%&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%#"=K2 + O2 + ROUND(R2/2300,2) - U2 - ROUND(V2/2300,2)"%&gt;</t>
+    <t>&lt;%#"=K"+_row+" + O"+_row+" + ROUND(R"+_row+"/2300,2) - U"+_row+" - ROUND(V"+_row+"/2300,2)"%&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -837,7 +833,7 @@
         <v>45</v>
       </c>
       <c r="W2" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="X2" s="6" t="s">
         <v>36</v>

--- a/excelTemplate/LogisticsFreightReceipt.xlsx
+++ b/excelTemplate/LogisticsFreightReceipt.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\zt\zhongtan-server\excelTemplate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liudong/workspace/xiangmeng/git/zhongtan/zhongtan-server/excelTemplate/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37CC7BF-974C-594D-95A9-6DA19F0691B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="21520" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TBL付费跟踪表出口" sheetId="1" r:id="rId1"/>
@@ -249,12 +250,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -386,7 +387,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规_Cargo Tracing report1" xfId="1"/>
+    <cellStyle name="常规_Cargo Tracing report1" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -663,35 +664,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="3" width="24.25" style="1" customWidth="1"/>
+    <col min="1" max="3" width="24.1640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.5" style="1" customWidth="1"/>
     <col min="5" max="7" width="18" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.625" style="1" customWidth="1"/>
-    <col min="9" max="10" width="10.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" style="1" customWidth="1"/>
+    <col min="9" max="10" width="10.33203125" style="1" customWidth="1"/>
     <col min="11" max="11" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="15.875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="21.1640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="15.83203125" style="1" customWidth="1"/>
     <col min="14" max="14" width="17.5" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="12.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.25" style="1" customWidth="1"/>
-    <col min="20" max="23" width="16.375" style="1" customWidth="1"/>
-    <col min="24" max="24" width="17.375" style="1" customWidth="1"/>
-    <col min="25" max="16384" width="8.75" style="1"/>
+    <col min="15" max="15" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.83203125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.1640625" style="1" customWidth="1"/>
+    <col min="20" max="23" width="16.33203125" style="1" customWidth="1"/>
+    <col min="24" max="24" width="17.33203125" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="48.75" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -765,7 +764,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" s="4" customFormat="1" ht="16">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
@@ -847,38 +846,38 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:N1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="23.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="18.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="19.375" style="2" customWidth="1"/>
+    <col min="1" max="3" width="23.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" style="2" customWidth="1"/>
     <col min="7" max="7" width="18" style="2" customWidth="1"/>
-    <col min="8" max="8" width="16.25" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="17.75" style="2" customWidth="1"/>
-    <col min="11" max="11" width="19.25" style="2" customWidth="1"/>
-    <col min="12" max="12" width="21.875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="20.25" style="2" customWidth="1"/>
-    <col min="14" max="14" width="13.25" style="2" customWidth="1"/>
-    <col min="15" max="15" width="15.375" style="2" customWidth="1"/>
-    <col min="16" max="16" width="18.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="16.1640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="19.1640625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="21.83203125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="20.1640625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="13.1640625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="15.33203125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="18.1640625" style="2" customWidth="1"/>
     <col min="17" max="17" width="19" style="2" customWidth="1"/>
-    <col min="18" max="18" width="16.75" style="2" customWidth="1"/>
+    <col min="18" max="18" width="16.6640625" style="2" customWidth="1"/>
     <col min="19" max="19" width="17" style="2" customWidth="1"/>
-    <col min="20" max="23" width="17.125" style="2" customWidth="1"/>
-    <col min="24" max="24" width="17.375" style="2" customWidth="1"/>
-    <col min="25" max="16384" width="8.75" style="2"/>
+    <col min="20" max="23" width="17.1640625" style="2" customWidth="1"/>
+    <col min="24" max="24" width="17.33203125" style="2" customWidth="1"/>
+    <col min="25" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" ht="57.75" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -952,7 +951,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" ht="22.5" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>31</v>
       </c>
